--- a/cpac-data.xlsx
+++ b/cpac-data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPAC-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005BDE38-DC99-4BA9-9AB0-441F53FD0F5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123BB18-90DC-48F6-8C2F-DC5F4D6BF34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4650" activeTab="2" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4650" activeTab="3" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Modality" sheetId="1" r:id="rId1"/>
     <sheet name="wrong" sheetId="4" r:id="rId2"/>
     <sheet name="test" sheetId="6" r:id="rId3"/>
-    <sheet name="long" sheetId="7" r:id="rId4"/>
-    <sheet name="PreTrain" sheetId="2" r:id="rId5"/>
-    <sheet name="overfit" sheetId="3" r:id="rId6"/>
+    <sheet name="train" sheetId="8" r:id="rId4"/>
+    <sheet name="long" sheetId="7" r:id="rId5"/>
+    <sheet name="PreTrain" sheetId="2" r:id="rId6"/>
+    <sheet name="overfit" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="257">
   <si>
     <t>1.75 (0.51)</t>
   </si>
@@ -3694,6 +3695,30 @@
   <si>
     <t>interaction auprc 0.0950826593017826 auroc 0.7948272328378995 binding site auprc 0.25537909153525024 auroc 0.7749897160655032</t>
   </si>
+  <si>
+    <t>单样本学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train.loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16样本学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5917,6 +5942,1463 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>long!$A$1:$A$404</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="404"/>
+                <c:pt idx="0">
+                  <c:v>188.790576934814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.66328239440901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.706413269042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.71173667907701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.63997459411601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188.64935493469201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>188.66134452819799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188.67092704772901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188.779397964477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188.685890197753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188.58799552917401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188.66275405883701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>188.57831192016599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>188.61667823791501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>188.657777786254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188.611585617065</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>188.641160964965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.58271789550699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188.66732788085901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188.639928817749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>188.66983985900799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188.62578582763601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>188.569864273071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>188.72295761108299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>188.70012474059999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>188.94405555725001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>188.764427185058</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188.70919609069799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.75388717651299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>188.72145462036099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>188.66974449157701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>188.73323631286601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>188.67149925231899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>188.60611534118601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>188.703998565673</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>188.78929901123001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>188.99022865295399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>188.777278900146</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>188.82402229309</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>188.762386322021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>188.62113761901799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>188.73613739013601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>188.84616088867099</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>188.75705718994101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>188.723644256591</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>188.627323150634</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>188.73074531555099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188.74522209167401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>188.59722328186001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>188.703161239624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>188.66183471679599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>188.65321350097599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>188.59754753112699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>188.66171646118099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>188.726587295532</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>188.68743896484301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>188.73599052429199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>188.66281700134201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>188.876668930053</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>188.69116401672301</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188.69842529296801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>188.77866935729901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>188.81090927124001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>188.838172912597</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>188.71127700805599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>188.69968605041501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>188.92697715759201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>188.64531898498501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>189.008441925048</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>188.72218513488701</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>188.821907043457</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>188.810558319091</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>188.650699615478</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>188.71116065979001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188.72889518737699</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>188.72221374511699</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>188.892667770385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>188.82326126098599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>188.804969787597</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>188.77144241332999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>188.72539520263601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>188.79022026062</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>188.74298858642501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>188.67348480224601</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>188.619447708129</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>188.79497718811001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>188.77082061767501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>188.62428665161099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>188.68702125549299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>188.79631042480401</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>188.82249259948699</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>188.87972831726</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>188.75167655944799</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188.752737045288</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>188.839458465576</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>188.692623138427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>188.75789451599101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>188.749252319335</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>188.82901954650799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>188.654092788696</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>188.67279434204099</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>188.78261947631799</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>188.76953315734801</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>188.73569297790499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>188.871891021728</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>188.781673431396</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>188.789602279663</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>188.725337982177</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>188.56995582580501</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>188.78172111511199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>189.18330001831001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>189.01428031921299</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>188.78656196594201</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>188.99836349487299</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>188.71017265319799</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>188.75821495056101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>188.72636032104401</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>188.80757141113199</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>188.69824981689399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>188.77943229675199</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>188.90638351440401</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>188.82223701477</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>188.69336509704499</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>188.74170494079499</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>188.79570770263601</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>188.85745048522901</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>188.89122009277301</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>188.75007247924799</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>188.69043350219701</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>188.90794944763101</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>188.75680732727</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>188.63524627685501</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>188.77408790588299</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>188.80100822448699</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>188.91112327575601</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>188.600057601928</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>188.99477195739701</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>188.79744911193799</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>188.93207931518501</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>188.70285987854001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>188.690040588378</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>188.94895553588799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>188.83696746826101</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>188.79978561401299</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>188.76658630371</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>188.76135063171299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>188.78049468994101</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>188.923875808715</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>188.823421478271</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>188.81880569457999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>188.75078964233299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>188.74222946166901</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>188.85202026367099</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>188.70497131347599</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>188.742136001586</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>188.892564773559</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>188.820966720581</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>188.77560043334901</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>188.64410018920799</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>188.70944786071701</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>188.733783721923</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>188.83811569213799</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>188.812240600585</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>188.861030578613</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>188.6103515625</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>188.78386116027801</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>188.73701477050699</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>188.88893699645899</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>188.66104698181101</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>188.85320091247499</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>188.633863449096</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>188.720458984375</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>188.70258712768501</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>188.78914070129301</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>188.68947982788001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>188.95117378234801</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>188.864114761352</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>188.92313003539999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188.81199073791501</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>188.79797363281199</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>188.77927589416501</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>188.836246490478</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>188.843555450439</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188.81332778930599</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>188.99361991882299</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>188.77588653564399</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>188.826824188232</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.800779342651</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188.88516616821201</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>188.88931083679199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>188.76785087585401</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>188.92184257507299</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>188.724195480346</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>188.788597106933</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>188.80944633483799</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>188.73793029785099</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>188.74175453186001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>188.90697479248001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>188.770107269287</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>188.720844268798</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>188.79388999938899</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>188.68844223022401</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>188.837104797363</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>188.83914566039999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>188.710514068603</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>188.98181343078599</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>188.96998596191401</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>188.970279693603</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>188.90691184997499</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>188.79063415527301</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>188.69860458374001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>188.81698799133301</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>188.89491081237699</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>188.97013092041001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>188.87778091430599</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>188.74503326416001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>189.11931037902801</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>188.692958831787</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>188.72854614257801</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>188.90599822998001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>188.937858581542</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>188.99190139770499</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>188.73104286193799</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>188.78270530700601</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>188.659822463989</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>188.755962371826</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>188.77521324157701</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>188.81893348693799</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>188.75864219665499</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>188.78147125244101</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>188.99559974670399</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>188.83718490600501</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>188.96553230285599</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>188.850763320922</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>188.929931640625</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>188.87178421020499</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>188.88703918457</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>188.955425262451</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>188.98105430602999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>188.820518493652</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>188.866313934326</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>188.88370704650799</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>188.94737815856899</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>188.799549102783</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>188.86077880859301</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>188.82792854309</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>188.84898185729901</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>188.951684951782</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>188.77080535888601</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>188.87661361694299</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>188.74466133117599</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>188.842903137207</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>188.924829483032</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>188.85416412353501</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>188.88782882690401</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>188.861585617065</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>188.844547271728</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>188.93685913085901</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>188.83001899719201</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>188.86689758300699</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>188.893270492553</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>188.795642852783</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>188.97783660888601</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>188.816699981689</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>188.93940544128401</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>188.90223693847599</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>188.841974258422</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>188.95881652832</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>188.90290069580001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>188.806011199951</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>188.84941101074199</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>189.09906387329099</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>188.92232131957999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>188.87714767456001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>189.032970428466</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>188.877681732177</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>188.819065093994</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>188.913948059082</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>188.79753494262599</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>188.96656036376899</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>188.84493637084901</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>188.85294532775799</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>188.84630393981899</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>188.87794685363701</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>188.751398086547</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>188.858638763427</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>188.99353218078599</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>188.86632156371999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>188.784860610961</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>188.92355155944799</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>188.86527633666901</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>188.72197151184</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>188.75345993041901</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>188.73868560791001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>188.98562812805099</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>188.83242225646899</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>188.926601409912</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>188.924352645874</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>188.83370399475001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>188.796503067016</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>188.876283645629</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>188.85168266296299</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>188.81159019470201</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>188.86690139770499</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>188.88755798339801</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>188.835872650146</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>188.957298278808</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>188.85439109802201</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>188.74703979492099</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>188.84459495544399</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>189.07275962829499</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>188.74846267700099</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>188.87648391723599</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>189.11449432373001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>188.97982215881299</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>188.85318756103501</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>189.02688217163001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>188.82297325134201</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>188.79147338867099</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>188.76334190368601</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>188.745054244995</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>188.87414169311501</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>188.85601234436001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>189.113100051879</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>188.81260490417401</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>188.85957717895499</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>188.80632591247499</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>188.96617126464801</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>188.87477493286099</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>188.731922149658</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>188.87539100646899</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>188.873390197753</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>188.789011001586</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>188.771858215332</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>188.87442779541001</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>188.88218879699701</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>188.83321762084901</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>188.831169128417</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>188.869667053222</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>188.965330123901</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>188.84516716003401</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>188.77124214172301</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>188.720430374145</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>189.00621223449701</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>188.74580764770499</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>188.98364639282201</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>188.82604026794399</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>188.83013534545799</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>188.72799682617099</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>188.888900756835</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>188.88741683959901</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>188.84247016906701</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>188.69051361083899</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>188.74074363708399</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>188.67864036559999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>188.79117202758701</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>188.77359008789</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>188.80355262756299</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>188.72860908508301</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>188.68653106689399</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>188.75340080261199</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>188.772228240966</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>188.73749923706001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>188.90211486816401</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>188.58558654785099</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>188.64117050170799</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>188.79121208190901</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>188.699871063232</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>188.71455192565901</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>188.73109436035099</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>188.710359573364</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>188.67562294006299</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>188.65374755859301</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>188.757028579711</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>188.65253829956001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>188.67249679565401</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>188.71287536621</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>188.792388916015</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>188.86666297912501</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>188.78247261047301</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>188.74170494079499</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>188.78036499023401</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>188.81013679504301</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>188.69898986816401</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>188.76063156127901</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>188.74740409851</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>188.72829818725501</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>188.81155586242599</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>188.738819122314</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>188.729349136352</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>188.718709945678</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>188.669673919677</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>188.65799140930099</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>188.69342803955001</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>188.67785263061501</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>188.75787925720201</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>188.80990982055599</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>188.68213272094701</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>188.699039459228</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>188.67904090881299</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>188.7353515625</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>188.85367393493601</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>188.711307525634</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>188.72134017944299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A291-4573-812D-AB393A4B8AC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="577966127"/>
+        <c:axId val="578996383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="577966127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578996383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578996383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577966127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>long!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6329,7 +7811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8343,7 +9825,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15291,1221 +16773,552 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>long!$A$1:$A$404</c:f>
+              <c:f>train!$C$2:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="404"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>188.790576934814</c:v>
+                  <c:v>43.043999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.66328239440901</c:v>
+                  <c:v>40.966000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.706413269042</c:v>
+                  <c:v>42.295999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.71173667907701</c:v>
+                  <c:v>40.826000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188.63997459411601</c:v>
+                  <c:v>40.902999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.64935493469201</c:v>
+                  <c:v>40.561999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.66134452819799</c:v>
+                  <c:v>40.417999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.67092704772901</c:v>
+                  <c:v>42.695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188.779397964477</c:v>
+                  <c:v>41.470999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>188.685890197753</c:v>
+                  <c:v>40.545000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188.58799552917401</c:v>
+                  <c:v>41.628999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188.66275405883701</c:v>
+                  <c:v>40.792999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188.57831192016599</c:v>
+                  <c:v>41.140999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188.61667823791501</c:v>
+                  <c:v>40.853000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>188.657777786254</c:v>
+                  <c:v>41.249000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>188.611585617065</c:v>
+                  <c:v>40.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188.641160964965</c:v>
+                  <c:v>40.604999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>188.58271789550699</c:v>
+                  <c:v>41.405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188.66732788085901</c:v>
+                  <c:v>40.186</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188.639928817749</c:v>
+                  <c:v>40.031999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188.66983985900799</c:v>
+                  <c:v>40.118000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>188.62578582763601</c:v>
+                  <c:v>40.542999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188.569864273071</c:v>
+                  <c:v>40.31</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188.72295761108299</c:v>
+                  <c:v>40.576000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188.70012474059999</c:v>
+                  <c:v>40.484000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188.94405555725001</c:v>
+                  <c:v>39.825000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.764427185058</c:v>
+                  <c:v>39.895000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188.70919609069799</c:v>
+                  <c:v>41.228000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>188.75388717651299</c:v>
+                  <c:v>39.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>188.72145462036099</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.66974449157701</c:v>
+                  <c:v>40.438000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>188.73323631286601</c:v>
+                  <c:v>40.042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>188.67149925231899</c:v>
+                  <c:v>40.454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>188.60611534118601</c:v>
+                  <c:v>39.975999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>188.703998565673</c:v>
+                  <c:v>39.892000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>188.78929901123001</c:v>
+                  <c:v>40.570999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>188.99022865295399</c:v>
+                  <c:v>39.81</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>188.777278900146</c:v>
+                  <c:v>40.570999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>188.82402229309</c:v>
+                  <c:v>39.692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>188.762386322021</c:v>
+                  <c:v>40.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>188.62113761901799</c:v>
+                  <c:v>40.328000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>188.73613739013601</c:v>
+                  <c:v>39.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>188.84616088867099</c:v>
+                  <c:v>40.787999999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>188.75705718994101</c:v>
+                  <c:v>40.097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>188.723644256591</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>188.627323150634</c:v>
+                  <c:v>39.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188.73074531555099</c:v>
+                  <c:v>39.750999999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>188.74522209167401</c:v>
+                  <c:v>40.061999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>188.59722328186001</c:v>
+                  <c:v>39.74</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>188.703161239624</c:v>
+                  <c:v>40.104999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>188.66183471679599</c:v>
+                  <c:v>40.44</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>188.65321350097599</c:v>
+                  <c:v>40.344000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>188.59754753112699</c:v>
+                  <c:v>39.96</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>188.66171646118099</c:v>
+                  <c:v>39.741999999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>188.726587295532</c:v>
+                  <c:v>40.182000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>188.68743896484301</c:v>
+                  <c:v>39.767000000000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>188.73599052429199</c:v>
+                  <c:v>40.258000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.66281700134201</c:v>
+                  <c:v>39.804000000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>188.876668930053</c:v>
+                  <c:v>40.113</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>188.69116401672301</c:v>
+                  <c:v>40.334000000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>188.69842529296801</c:v>
+                  <c:v>39.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>188.77866935729901</c:v>
+                  <c:v>39.604999999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>188.81090927124001</c:v>
+                  <c:v>40.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>188.838172912597</c:v>
+                  <c:v>39.670999999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>188.71127700805599</c:v>
+                  <c:v>39.558</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>188.69968605041501</c:v>
+                  <c:v>39.609000000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>188.92697715759201</c:v>
+                  <c:v>40.143999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>188.64531898498501</c:v>
+                  <c:v>39.78</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>189.008441925048</c:v>
+                  <c:v>39.780999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>188.72218513488701</c:v>
+                  <c:v>39.865000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>188.821907043457</c:v>
+                  <c:v>39.755000000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>188.810558319091</c:v>
+                  <c:v>39.834000000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>188.650699615478</c:v>
+                  <c:v>39.506</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>188.71116065979001</c:v>
+                  <c:v>39.722000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.72889518737699</c:v>
+                  <c:v>40.124000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>188.72221374511699</c:v>
+                  <c:v>39.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>188.892667770385</c:v>
+                  <c:v>39.634</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>188.82326126098599</c:v>
+                  <c:v>39.701000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>188.804969787597</c:v>
+                  <c:v>39.976999999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>188.77144241332999</c:v>
+                  <c:v>40.587000000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>188.72539520263601</c:v>
+                  <c:v>39.859000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>188.79022026062</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>188.74298858642501</c:v>
+                  <c:v>40.381999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>188.67348480224601</c:v>
+                  <c:v>39.695</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>188.619447708129</c:v>
+                  <c:v>39.502000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>188.79497718811001</c:v>
+                  <c:v>39.709000000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>188.77082061767501</c:v>
+                  <c:v>39.661000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>188.62428665161099</c:v>
+                  <c:v>39.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>188.68702125549299</c:v>
+                  <c:v>39.808999999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>188.79631042480401</c:v>
+                  <c:v>39.923000000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>188.82249259948699</c:v>
+                  <c:v>39.725000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>188.87972831726</c:v>
+                  <c:v>39.912999999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>188.75167655944799</c:v>
+                  <c:v>39.475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188.752737045288</c:v>
+                  <c:v>40.122</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>188.839458465576</c:v>
+                  <c:v>39.695999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>188.692623138427</c:v>
+                  <c:v>39.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>188.75789451599101</c:v>
+                  <c:v>39.628999999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>188.749252319335</c:v>
+                  <c:v>39.595999999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>188.82901954650799</c:v>
+                  <c:v>39.625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>188.654092788696</c:v>
+                  <c:v>39.694000000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>188.67279434204099</c:v>
+                  <c:v>39.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>188.78261947631799</c:v>
+                  <c:v>39.597999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>188.76953315734801</c:v>
+                  <c:v>39.494</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>188.73569297790499</c:v>
+                  <c:v>40.131999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>188.871891021728</c:v>
+                  <c:v>39.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>188.781673431396</c:v>
+                  <c:v>39.615000000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>188.789602279663</c:v>
+                  <c:v>39.951999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>188.725337982177</c:v>
+                  <c:v>39.451999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>188.56995582580501</c:v>
+                  <c:v>39.552999999999997</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>188.78172111511199</c:v>
+                  <c:v>39.546999999999997</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>189.18330001831001</c:v>
+                  <c:v>39.524000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>189.01428031921299</c:v>
+                  <c:v>39.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>188.78656196594201</c:v>
+                  <c:v>39.814</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>188.99836349487299</c:v>
+                  <c:v>39.634999999999998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>188.71017265319799</c:v>
+                  <c:v>39.676000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>188.75821495056101</c:v>
+                  <c:v>39.54</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>188.72636032104401</c:v>
+                  <c:v>39.828000000000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>188.80757141113199</c:v>
+                  <c:v>39.482999999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>188.69824981689399</c:v>
+                  <c:v>39.874000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>188.77943229675199</c:v>
+                  <c:v>39.636000000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>188.90638351440401</c:v>
+                  <c:v>39.576000000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>188.82223701477</c:v>
+                  <c:v>39.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>188.69336509704499</c:v>
+                  <c:v>39.512</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>188.74170494079499</c:v>
+                  <c:v>39.665999999999997</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>188.79570770263601</c:v>
+                  <c:v>39.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>188.85745048522901</c:v>
+                  <c:v>39.561</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>188.89122009277301</c:v>
+                  <c:v>39.585999999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>188.75007247924799</c:v>
+                  <c:v>39.725000000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>188.69043350219701</c:v>
+                  <c:v>39.468000000000004</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>188.90794944763101</c:v>
+                  <c:v>39.537999999999997</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>188.75680732727</c:v>
+                  <c:v>39.85</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>188.63524627685501</c:v>
+                  <c:v>39.716999999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>188.77408790588299</c:v>
+                  <c:v>39.65</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>188.80100822448699</c:v>
+                  <c:v>39.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>188.91112327575601</c:v>
+                  <c:v>39.530999999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>188.600057601928</c:v>
+                  <c:v>39.674999999999997</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>188.99477195739701</c:v>
+                  <c:v>39.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>188.79744911193799</c:v>
+                  <c:v>39.54</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>188.93207931518501</c:v>
+                  <c:v>39.563000000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>188.70285987854001</c:v>
+                  <c:v>39.481999999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>188.690040588378</c:v>
+                  <c:v>39.694000000000003</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>188.94895553588799</c:v>
+                  <c:v>39.594999999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>188.83696746826101</c:v>
+                  <c:v>39.637</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>188.79978561401299</c:v>
+                  <c:v>39.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>188.76658630371</c:v>
+                  <c:v>39.514000000000003</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>188.76135063171299</c:v>
+                  <c:v>39.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>188.78049468994101</c:v>
+                  <c:v>39.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>188.923875808715</c:v>
+                  <c:v>39.704000000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>188.823421478271</c:v>
+                  <c:v>39.509</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>188.81880569457999</c:v>
+                  <c:v>39.637</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>188.75078964233299</c:v>
+                  <c:v>39.472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>188.74222946166901</c:v>
+                  <c:v>39.57</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>188.85202026367099</c:v>
+                  <c:v>39.643000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>188.70497131347599</c:v>
+                  <c:v>39.762999999999998</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>188.742136001586</c:v>
+                  <c:v>39.807000000000002</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>188.892564773559</c:v>
+                  <c:v>39.582999999999998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>188.820966720581</c:v>
+                  <c:v>39.805999999999997</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>188.77560043334901</c:v>
+                  <c:v>39.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>188.64410018920799</c:v>
+                  <c:v>40.267000000000003</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>188.70944786071701</c:v>
+                  <c:v>39.457000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>188.733783721923</c:v>
+                  <c:v>39.685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>188.83811569213799</c:v>
+                  <c:v>39.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>188.812240600585</c:v>
+                  <c:v>39.521999999999998</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>188.861030578613</c:v>
+                  <c:v>39.603000000000002</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>188.6103515625</c:v>
+                  <c:v>39.618000000000002</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>188.78386116027801</c:v>
+                  <c:v>39.567</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>188.73701477050699</c:v>
+                  <c:v>39.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>188.88893699645899</c:v>
+                  <c:v>39.54</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>188.66104698181101</c:v>
+                  <c:v>39.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>188.85320091247499</c:v>
+                  <c:v>39.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>188.633863449096</c:v>
+                  <c:v>39.545999999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>188.720458984375</c:v>
+                  <c:v>39.521999999999998</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>188.70258712768501</c:v>
+                  <c:v>39.734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>188.78914070129301</c:v>
+                  <c:v>39.468000000000004</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>188.68947982788001</c:v>
+                  <c:v>39.476999999999997</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>188.95117378234801</c:v>
+                  <c:v>39.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>188.864114761352</c:v>
+                  <c:v>39.529000000000003</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>188.92313003539999</c:v>
+                  <c:v>39.494999999999997</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>188.81199073791501</c:v>
+                  <c:v>39.551000000000002</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>188.79797363281199</c:v>
+                  <c:v>39.521999999999998</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>188.77927589416501</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>188.836246490478</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>188.843555450439</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>188.81332778930599</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>188.99361991882299</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>188.77588653564399</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188.826824188232</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188.800779342651</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188.88516616821201</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>188.88931083679199</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>188.76785087585401</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>188.92184257507299</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>188.724195480346</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>188.788597106933</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>188.80944633483799</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>188.73793029785099</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>188.74175453186001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>188.90697479248001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>188.770107269287</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>188.720844268798</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>188.79388999938899</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>188.68844223022401</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>188.837104797363</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>188.83914566039999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>188.710514068603</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>188.98181343078599</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>188.96998596191401</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>188.970279693603</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>188.90691184997499</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>188.79063415527301</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>188.69860458374001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>188.81698799133301</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>188.89491081237699</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>188.97013092041001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>188.87778091430599</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>188.74503326416001</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>189.11931037902801</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>188.692958831787</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>188.72854614257801</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>188.90599822998001</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>188.937858581542</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>188.99190139770499</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>188.73104286193799</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>188.78270530700601</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>188.659822463989</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>188.755962371826</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>188.77521324157701</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>188.81893348693799</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>188.75864219665499</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>188.78147125244101</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>188.99559974670399</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>188.83718490600501</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>188.96553230285599</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>188.850763320922</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>188.929931640625</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>188.87178421020499</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>188.88703918457</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>188.955425262451</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>188.98105430602999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>188.820518493652</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>188.866313934326</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>188.88370704650799</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>188.94737815856899</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>188.799549102783</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>188.86077880859301</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>188.82792854309</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>188.84898185729901</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>188.951684951782</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>188.77080535888601</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>188.87661361694299</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>188.74466133117599</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>188.842903137207</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>188.924829483032</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>188.85416412353501</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>188.88782882690401</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>188.861585617065</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>188.844547271728</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>188.93685913085901</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>188.83001899719201</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>188.86689758300699</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>188.893270492553</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>188.795642852783</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>188.97783660888601</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>188.816699981689</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>188.93940544128401</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>188.90223693847599</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>188.841974258422</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>188.95881652832</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>188.90290069580001</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>188.806011199951</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>188.84941101074199</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>189.09906387329099</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>188.92232131957999</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>188.87714767456001</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>189.032970428466</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>188.877681732177</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>188.819065093994</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>188.913948059082</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>188.79753494262599</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>188.96656036376899</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>188.84493637084901</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>188.85294532775799</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>188.84630393981899</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>188.87794685363701</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>188.751398086547</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>188.858638763427</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>188.99353218078599</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>188.86632156371999</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>188.784860610961</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>188.92355155944799</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>188.86527633666901</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>188.72197151184</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>188.75345993041901</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>188.73868560791001</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>188.98562812805099</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>188.83242225646899</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>188.926601409912</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>188.924352645874</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>188.83370399475001</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>188.796503067016</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>188.876283645629</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>188.85168266296299</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>188.81159019470201</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>188.86690139770499</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>188.88755798339801</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>188.835872650146</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>188.957298278808</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>188.85439109802201</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>188.74703979492099</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>188.84459495544399</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>189.07275962829499</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>188.74846267700099</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>188.87648391723599</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>189.11449432373001</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>188.97982215881299</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>188.85318756103501</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>189.02688217163001</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>188.82297325134201</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>188.79147338867099</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>188.76334190368601</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>188.745054244995</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>188.87414169311501</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>188.85601234436001</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>189.113100051879</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>188.81260490417401</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>188.85957717895499</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>188.80632591247499</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>188.96617126464801</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>188.87477493286099</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>188.731922149658</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>188.87539100646899</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>188.873390197753</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>188.789011001586</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>188.771858215332</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>188.87442779541001</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>188.88218879699701</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>188.83321762084901</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>188.831169128417</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>188.869667053222</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>188.965330123901</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>188.84516716003401</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>188.77124214172301</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>188.720430374145</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>189.00621223449701</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>188.74580764770499</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>188.98364639282201</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>188.82604026794399</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>188.83013534545799</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>188.72799682617099</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>188.888900756835</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>188.88741683959901</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>188.84247016906701</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>188.69051361083899</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>188.74074363708399</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>188.67864036559999</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>188.79117202758701</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>188.77359008789</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>188.80355262756299</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>188.72860908508301</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>188.68653106689399</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>188.75340080261199</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>188.772228240966</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>188.73749923706001</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>188.90211486816401</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>188.58558654785099</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>188.64117050170799</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>188.79121208190901</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>188.699871063232</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>188.71455192565901</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>188.73109436035099</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>188.710359573364</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>188.67562294006299</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>188.65374755859301</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>188.757028579711</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>188.65253829956001</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>188.67249679565401</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>188.71287536621</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>188.792388916015</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>188.86666297912501</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>188.78247261047301</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>188.74170494079499</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>188.78036499023401</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>188.81013679504301</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>188.69898986816401</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>188.76063156127901</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>188.74740409851</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>188.72829818725501</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>188.81155586242599</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>188.738819122314</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>188.729349136352</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>188.718709945678</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>188.669673919677</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>188.65799140930099</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>188.69342803955001</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>188.67785263061501</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>188.75787925720201</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>188.80990982055599</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>188.68213272094701</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>188.699039459228</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>188.67904090881299</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>188.7353515625</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>188.85367393493601</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>188.711307525634</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>188.72134017944299</c:v>
+                  <c:v>39.573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16513,7 +17326,581 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A291-4573-812D-AB393A4B8AC1}"/>
+              <c16:uniqueId val="{00000000-677C-476C-BA02-471EB3B2DC01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>train!$D$2:$D$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>534.41700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553.30100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>574.01300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>590.79100000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>557.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>543.19100000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>564.30100000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>547.78300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>601.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>551.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>603.65700000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>561.28499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>583.56899999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>571.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>568.37199999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>591.70799999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>571.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>581.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>602.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>568.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>559.63199999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>568.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>581.65599999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>568.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>591.74300000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>588.23400000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>570.798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>593.68200000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>576.596</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>558.43499999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>566.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>576.80700000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>569.89700000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>574.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>556.55999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>565.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>559.89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>562.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>578.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>562.67100000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>585.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>562.14099999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>581.72900000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>573.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>580.87800000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580.678</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>580.245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>590.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>583.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>578.94500000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>581.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>590.76</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>570.47699999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>588.00699999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>577.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>570.28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>565.11400000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>580.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>572.39200000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>575.649</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>574.91099999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>582.78599999999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>579.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>564.74900000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>572.70600000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>574.68899999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>566.54700000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>584.89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>593.26300000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>576.27099999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>584.43499999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>563.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>586.07500000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>569.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>584.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>575.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>565.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>587.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>576.16899999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>567.88</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>576.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>579.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>582.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>576.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>574.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>571.40700000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>586.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>580.55999999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>572.16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>576.38800000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>585.45299999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>573.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>572.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>574.67899999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>573.16600000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>575.79899999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>586.23900000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>574.83199999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>585.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>580.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>571.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>586.62900000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>570.55999999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>587.47299999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>581.101</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>578.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>576.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>581.10299999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>581.548</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>577.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>582.75199999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>584.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>580.66099999999994</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>586.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>580.44299999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>578.41200000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>576.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>579.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>574.94899999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>573.26099999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>578.74800000000005</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>587.62099999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>576.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>576.95899999999995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>575.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>580.35699999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>583.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>572.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>589.00300000000004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>582.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>580.53499999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>580.31200000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>578.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>575.678</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>582.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>584.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>579.91200000000003</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>571.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>579.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>585.38</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>582.27800000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>581.04200000000003</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>576.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>580.53499999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>586.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>574.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>574.548</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>578.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>577.69100000000003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>579.63199999999995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>570.596</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>588.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>581.08799999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>572.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>582.77200000000005</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>587.90099999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>579.423</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>585.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>587.452</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>581.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>573.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>580.05100000000004</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>577.16600000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>585.29600000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>574.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>575.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>575.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>578.91700000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>580.48800000000006</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>588.57399999999996</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>580.60400000000004</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>578.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>577.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>581.60199999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>581.26300000000003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>576.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>581.97299999999996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>580.13800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-677C-476C-BA02-471EB3B2DC01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16526,17 +17913,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="577966127"/>
-        <c:axId val="578996383"/>
+        <c:axId val="1959581455"/>
+        <c:axId val="1967545951"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="577966127"/>
+        <c:axId val="1959581455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16573,7 +17959,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578996383"/>
+        <c:crossAx val="1967545951"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16581,8 +17967,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578996383"/>
+        <c:axId val="1967545951"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -16632,7 +18019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577966127"/>
+        <c:crossAx val="1959581455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16644,8 +18031,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -16802,6 +18227,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18710,6 +20175,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23655,6 +25636,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED045EA0-4DD6-407F-83D6-916AED9894C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -30287,7 +32309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716BAB6-BB97-491C-8951-2E5BFB9FF23A}">
   <dimension ref="A1:R500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
@@ -34467,6 +36489,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F713C-62A2-4946-B10B-F5C365A7F2BC}">
+  <dimension ref="A1:D182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>43.043999999999997</v>
+      </c>
+      <c r="D2">
+        <v>534.41700000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>40.966000000000001</v>
+      </c>
+      <c r="D3">
+        <v>553.30100000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>2200</v>
+      </c>
+      <c r="C4">
+        <v>42.295999999999999</v>
+      </c>
+      <c r="D4">
+        <v>570.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>40.826000000000001</v>
+      </c>
+      <c r="D5">
+        <v>575.90899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>521.29999999999995</v>
+      </c>
+      <c r="C6">
+        <v>40.902999999999999</v>
+      </c>
+      <c r="D6">
+        <v>604.35199999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>40.561999999999998</v>
+      </c>
+      <c r="D7">
+        <v>574.01300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>40.417999999999999</v>
+      </c>
+      <c r="D8">
+        <v>590.79100000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>42.695</v>
+      </c>
+      <c r="D9">
+        <v>557.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>41.470999999999997</v>
+      </c>
+      <c r="D10">
+        <v>543.19100000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>40.545000000000002</v>
+      </c>
+      <c r="D11">
+        <v>564.30100000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>41.628999999999998</v>
+      </c>
+      <c r="D12">
+        <v>547.78300000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>40.792999999999999</v>
+      </c>
+      <c r="D13">
+        <v>601.41999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>41.140999999999998</v>
+      </c>
+      <c r="D14">
+        <v>551.59100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>40.853000000000002</v>
+      </c>
+      <c r="D15">
+        <v>603.65700000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>41.249000000000002</v>
+      </c>
+      <c r="D16">
+        <v>561.28499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>40.15</v>
+      </c>
+      <c r="D17">
+        <v>583.56899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>40.604999999999997</v>
+      </c>
+      <c r="D18">
+        <v>571.88900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>41.405999999999999</v>
+      </c>
+      <c r="D19">
+        <v>568.37199999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>40.186</v>
+      </c>
+      <c r="D20">
+        <v>591.70799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>40.031999999999996</v>
+      </c>
+      <c r="D21">
+        <v>571.35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>40.118000000000002</v>
+      </c>
+      <c r="D22">
+        <v>581.71699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>40.542999999999999</v>
+      </c>
+      <c r="D23">
+        <v>602.45799999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>40.31</v>
+      </c>
+      <c r="D24">
+        <v>568.11099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>40.576000000000001</v>
+      </c>
+      <c r="D25">
+        <v>559.63199999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>40.484000000000002</v>
+      </c>
+      <c r="D26">
+        <v>568.94200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>39.825000000000003</v>
+      </c>
+      <c r="D27">
+        <v>581.65599999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>39.895000000000003</v>
+      </c>
+      <c r="D28">
+        <v>568.54999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>41.228000000000002</v>
+      </c>
+      <c r="D29">
+        <v>591.74300000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D30">
+        <v>588.23400000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>40.1</v>
+      </c>
+      <c r="D31">
+        <v>570.798</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>40.438000000000002</v>
+      </c>
+      <c r="D32">
+        <v>593.68200000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>40.042999999999999</v>
+      </c>
+      <c r="D33">
+        <v>576.596</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>40.454999999999998</v>
+      </c>
+      <c r="D34">
+        <v>558.43499999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>39.975999999999999</v>
+      </c>
+      <c r="D35">
+        <v>566.41399999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>39.892000000000003</v>
+      </c>
+      <c r="D36">
+        <v>576.80700000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>40.570999999999998</v>
+      </c>
+      <c r="D37">
+        <v>569.89700000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>39.81</v>
+      </c>
+      <c r="D38">
+        <v>574.74099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>40.570999999999998</v>
+      </c>
+      <c r="D39">
+        <v>556.55999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>39.692999999999998</v>
+      </c>
+      <c r="D40">
+        <v>565.90499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>40.082000000000001</v>
+      </c>
+      <c r="D41">
+        <v>559.89</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>40.328000000000003</v>
+      </c>
+      <c r="D42">
+        <v>562.62400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>39.798000000000002</v>
+      </c>
+      <c r="D43">
+        <v>578.67499999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>40.787999999999997</v>
+      </c>
+      <c r="D44">
+        <v>562.67100000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>40.097999999999999</v>
+      </c>
+      <c r="D45">
+        <v>585.20699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>40.4</v>
+      </c>
+      <c r="D46">
+        <v>562.14099999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>39.646000000000001</v>
+      </c>
+      <c r="D47">
+        <v>581.72900000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>39.750999999999998</v>
+      </c>
+      <c r="D48">
+        <v>573.32299999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>40.061999999999998</v>
+      </c>
+      <c r="D49">
+        <v>580.87800000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>39.74</v>
+      </c>
+      <c r="D50">
+        <v>580.678</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>40.104999999999997</v>
+      </c>
+      <c r="D51">
+        <v>580.245</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>40.44</v>
+      </c>
+      <c r="D52">
+        <v>590.05200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>40.344000000000001</v>
+      </c>
+      <c r="D53">
+        <v>583.18299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>39.96</v>
+      </c>
+      <c r="D54">
+        <v>578.94500000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>39.741999999999997</v>
+      </c>
+      <c r="D55">
+        <v>581.39400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>40.182000000000002</v>
+      </c>
+      <c r="D56">
+        <v>590.76</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>39.767000000000003</v>
+      </c>
+      <c r="D57">
+        <v>570.47699999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>40.258000000000003</v>
+      </c>
+      <c r="D58">
+        <v>588.00699999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>39.804000000000002</v>
+      </c>
+      <c r="D59">
+        <v>577.91899999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>40.113</v>
+      </c>
+      <c r="D60">
+        <v>570.28</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>40.334000000000003</v>
+      </c>
+      <c r="D61">
+        <v>565.11400000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>39.584000000000003</v>
+      </c>
+      <c r="D62">
+        <v>580.90499999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>39.604999999999997</v>
+      </c>
+      <c r="D63">
+        <v>572.39200000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>40.155999999999999</v>
+      </c>
+      <c r="D64">
+        <v>575.649</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>39.670999999999999</v>
+      </c>
+      <c r="D65">
+        <v>574.91099999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>39.558</v>
+      </c>
+      <c r="D66">
+        <v>582.78599999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>39.609000000000002</v>
+      </c>
+      <c r="D67">
+        <v>579.53300000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>40.143999999999998</v>
+      </c>
+      <c r="D68">
+        <v>564.74900000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>39.78</v>
+      </c>
+      <c r="D69">
+        <v>572.70600000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>39.780999999999999</v>
+      </c>
+      <c r="D70">
+        <v>574.68899999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>39.865000000000002</v>
+      </c>
+      <c r="D71">
+        <v>566.54700000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="D72">
+        <v>584.89</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>39.834000000000003</v>
+      </c>
+      <c r="D73">
+        <v>593.26300000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>39.506</v>
+      </c>
+      <c r="D74">
+        <v>576.27099999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>39.722000000000001</v>
+      </c>
+      <c r="D75">
+        <v>584.43499999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>40.124000000000002</v>
+      </c>
+      <c r="D76">
+        <v>563.73099999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="D77">
+        <v>586.07500000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>39.634</v>
+      </c>
+      <c r="D78">
+        <v>569.29300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>39.701000000000001</v>
+      </c>
+      <c r="D79">
+        <v>584.80799999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>39.976999999999997</v>
+      </c>
+      <c r="D80">
+        <v>575.78099999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>40.587000000000003</v>
+      </c>
+      <c r="D81">
+        <v>565.94600000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>39.859000000000002</v>
+      </c>
+      <c r="D82">
+        <v>587.03800000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="D83">
+        <v>576.16899999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>40.381999999999998</v>
+      </c>
+      <c r="D84">
+        <v>567.88</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>39.695</v>
+      </c>
+      <c r="D85">
+        <v>576.17700000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>39.502000000000002</v>
+      </c>
+      <c r="D86">
+        <v>579.53399999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>39.709000000000003</v>
+      </c>
+      <c r="D87">
+        <v>582.80999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>39.661000000000001</v>
+      </c>
+      <c r="D88">
+        <v>576.68100000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>39.784999999999997</v>
+      </c>
+      <c r="D89">
+        <v>574.93200000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>39.808999999999997</v>
+      </c>
+      <c r="D90">
+        <v>571.40700000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>39.923000000000002</v>
+      </c>
+      <c r="D91">
+        <v>586.26900000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>39.725000000000001</v>
+      </c>
+      <c r="D92">
+        <v>580.55999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>39.912999999999997</v>
+      </c>
+      <c r="D93">
+        <v>572.16</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>39.475999999999999</v>
+      </c>
+      <c r="D94">
+        <v>576.38800000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>40.122</v>
+      </c>
+      <c r="D95">
+        <v>585.45299999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>39.695999999999998</v>
+      </c>
+      <c r="D96">
+        <v>573.09699999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>39.655000000000001</v>
+      </c>
+      <c r="D97">
+        <v>572.22500000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>39.628999999999998</v>
+      </c>
+      <c r="D98">
+        <v>574.67899999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>39.595999999999997</v>
+      </c>
+      <c r="D99">
+        <v>573.16600000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>39.625</v>
+      </c>
+      <c r="D100">
+        <v>575.79899999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>39.694000000000003</v>
+      </c>
+      <c r="D101">
+        <v>586.23900000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="D102">
+        <v>574.83199999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>39.597999999999999</v>
+      </c>
+      <c r="D103">
+        <v>585.68100000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>39.494</v>
+      </c>
+      <c r="D104">
+        <v>580.02800000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>40.131999999999998</v>
+      </c>
+      <c r="D105">
+        <v>571.12900000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D106">
+        <v>586.62900000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>39.615000000000002</v>
+      </c>
+      <c r="D107">
+        <v>570.55999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>39.951999999999998</v>
+      </c>
+      <c r="D108">
+        <v>587.47299999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>39.451999999999998</v>
+      </c>
+      <c r="D109">
+        <v>581.101</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>39.552999999999997</v>
+      </c>
+      <c r="D110">
+        <v>578.95100000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>39.546999999999997</v>
+      </c>
+      <c r="D111">
+        <v>576.01400000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>39.524000000000001</v>
+      </c>
+      <c r="D112">
+        <v>581.10299999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>39.667000000000002</v>
+      </c>
+      <c r="D113">
+        <v>581.548</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>39.814</v>
+      </c>
+      <c r="D114">
+        <v>577.88</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>39.634999999999998</v>
+      </c>
+      <c r="D115">
+        <v>582.75199999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>39.676000000000002</v>
+      </c>
+      <c r="D116">
+        <v>584.11599999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>39.54</v>
+      </c>
+      <c r="D117">
+        <v>580.66099999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>39.828000000000003</v>
+      </c>
+      <c r="D118">
+        <v>586.69000000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>39.482999999999997</v>
+      </c>
+      <c r="D119">
+        <v>580.44299999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>39.874000000000002</v>
+      </c>
+      <c r="D120">
+        <v>578.41200000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>39.636000000000003</v>
+      </c>
+      <c r="D121">
+        <v>576.21699999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>39.576000000000001</v>
+      </c>
+      <c r="D122">
+        <v>579.51499999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>39.926000000000002</v>
+      </c>
+      <c r="D123">
+        <v>574.94899999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>39.512</v>
+      </c>
+      <c r="D124">
+        <v>573.26099999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>39.665999999999997</v>
+      </c>
+      <c r="D125">
+        <v>578.74800000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>39.575000000000003</v>
+      </c>
+      <c r="D126">
+        <v>587.62099999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>39.561</v>
+      </c>
+      <c r="D127">
+        <v>576.67499999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>39.585999999999999</v>
+      </c>
+      <c r="D128">
+        <v>576.95899999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>39.725000000000001</v>
+      </c>
+      <c r="D129">
+        <v>575.85500000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>39.468000000000004</v>
+      </c>
+      <c r="D130">
+        <v>580.35699999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>39.537999999999997</v>
+      </c>
+      <c r="D131">
+        <v>583.15800000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>39.85</v>
+      </c>
+      <c r="D132">
+        <v>572.38900000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>39.716999999999999</v>
+      </c>
+      <c r="D133">
+        <v>589.00300000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>39.65</v>
+      </c>
+      <c r="D134">
+        <v>582.65800000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>39.631999999999998</v>
+      </c>
+      <c r="D135">
+        <v>580.53499999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>39.530999999999999</v>
+      </c>
+      <c r="D136">
+        <v>580.31200000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>39.674999999999997</v>
+      </c>
+      <c r="D137">
+        <v>578.32299999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>39.567999999999998</v>
+      </c>
+      <c r="D138">
+        <v>575.678</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>39.54</v>
+      </c>
+      <c r="D139">
+        <v>582.82799999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>39.563000000000002</v>
+      </c>
+      <c r="D140">
+        <v>584.45600000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>39.481999999999999</v>
+      </c>
+      <c r="D141">
+        <v>579.91200000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>39.694000000000003</v>
+      </c>
+      <c r="D142">
+        <v>571.56100000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>39.594999999999999</v>
+      </c>
+      <c r="D143">
+        <v>579.77499999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>39.637</v>
+      </c>
+      <c r="D144">
+        <v>585.38</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>39.521000000000001</v>
+      </c>
+      <c r="D145">
+        <v>582.27800000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>39.514000000000003</v>
+      </c>
+      <c r="D146">
+        <v>581.04200000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>39.661999999999999</v>
+      </c>
+      <c r="D147">
+        <v>576.64800000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="D148">
+        <v>580.53499999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>39.704000000000001</v>
+      </c>
+      <c r="D149">
+        <v>586.61099999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>39.509</v>
+      </c>
+      <c r="D150">
+        <v>574.92200000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>39.637</v>
+      </c>
+      <c r="D151">
+        <v>574.548</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>39.472999999999999</v>
+      </c>
+      <c r="D152">
+        <v>578.96100000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>39.57</v>
+      </c>
+      <c r="D153">
+        <v>577.69100000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>39.643000000000001</v>
+      </c>
+      <c r="D154">
+        <v>579.63199999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>39.762999999999998</v>
+      </c>
+      <c r="D155">
+        <v>570.596</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>39.807000000000002</v>
+      </c>
+      <c r="D156">
+        <v>588.26700000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>39.582999999999998</v>
+      </c>
+      <c r="D157">
+        <v>581.08799999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>39.805999999999997</v>
+      </c>
+      <c r="D158">
+        <v>572.76900000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>39.466999999999999</v>
+      </c>
+      <c r="D159">
+        <v>582.77200000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>40.267000000000003</v>
+      </c>
+      <c r="D160">
+        <v>587.90099999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>39.457000000000001</v>
+      </c>
+      <c r="D161">
+        <v>579.423</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>39.685000000000002</v>
+      </c>
+      <c r="D162">
+        <v>585.90300000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>39.704999999999998</v>
+      </c>
+      <c r="D163">
+        <v>587.452</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>39.521999999999998</v>
+      </c>
+      <c r="D164">
+        <v>581.63499999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>39.603000000000002</v>
+      </c>
+      <c r="D165">
+        <v>573.05999999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>39.618000000000002</v>
+      </c>
+      <c r="D166">
+        <v>580.05100000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>39.567</v>
+      </c>
+      <c r="D167">
+        <v>577.16600000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>39.656999999999996</v>
+      </c>
+      <c r="D168">
+        <v>585.29600000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>39.54</v>
+      </c>
+      <c r="D169">
+        <v>574.92200000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>39.798000000000002</v>
+      </c>
+      <c r="D170">
+        <v>575.25599999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>39.466999999999999</v>
+      </c>
+      <c r="D171">
+        <v>575.81299999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>39.545999999999999</v>
+      </c>
+      <c r="D172">
+        <v>578.91700000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>39.521999999999998</v>
+      </c>
+      <c r="D173">
+        <v>580.48800000000006</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>39.734999999999999</v>
+      </c>
+      <c r="D174">
+        <v>588.57399999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>39.468000000000004</v>
+      </c>
+      <c r="D175">
+        <v>580.60400000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>39.476999999999997</v>
+      </c>
+      <c r="D176">
+        <v>578.56299999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>39.567999999999998</v>
+      </c>
+      <c r="D177">
+        <v>577.77800000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>39.529000000000003</v>
+      </c>
+      <c r="D178">
+        <v>581.60199999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>39.494999999999997</v>
+      </c>
+      <c r="D179">
+        <v>581.26300000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>39.551000000000002</v>
+      </c>
+      <c r="D180">
+        <v>576.88900000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>39.521999999999998</v>
+      </c>
+      <c r="D181">
+        <v>581.97299999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>39.573</v>
+      </c>
+      <c r="D182">
+        <v>580.13800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C107396-4749-4E8C-80A9-F8CCF0976876}">
   <dimension ref="A1:X607"/>
   <sheetViews>
@@ -47970,7 +51496,7 @@
         <v>1</v>
       </c>
       <c r="I491">
-        <f t="shared" ref="I487:I550" si="40">IF(SUM(H491:H511)&lt;10,1,0)</f>
+        <f t="shared" ref="I491:I550" si="40">IF(SUM(H491:H511)&lt;10,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -49104,7 +52630,7 @@
         <v>193.30121994018501</v>
       </c>
       <c r="E537">
-        <f t="shared" ref="E537:E600" si="42">AVERAGE(C500:C519)</f>
+        <f t="shared" ref="E537:E582" si="42">AVERAGE(C500:C519)</f>
         <v>193.6327499389642</v>
       </c>
       <c r="F537">
@@ -50816,7 +54342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FDB501-0405-495C-8CA9-BBA8E5F548CB}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -51532,7 +55058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E4C948-8461-47C8-8831-D6C9EF66C10A}">
   <dimension ref="A1:C24"/>
   <sheetViews>

--- a/cpac-data.xlsx
+++ b/cpac-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPAC-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiModularity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123BB18-90DC-48F6-8C2F-DC5F4D6BF34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF16C8-F231-4035-A89A-8409A32F6BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4650" activeTab="3" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="14370" windowHeight="4650" activeTab="3" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Modality" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="259">
   <si>
     <t>1.75 (0.51)</t>
   </si>
@@ -3719,6 +3719,12 @@
     <t>16样本学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Train Losses</t>
+  </si>
+  <si>
+    <t>Test Losses</t>
+  </si>
 </sst>
 </file>
 
@@ -5928,6 +5934,683 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Losses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>train!$J$2:$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>17008.357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17008.357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14161.092000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14103.118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14036.084999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17533.687000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14550.880999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14442.607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14359.975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14352.181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14355.665000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14352.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14343.445</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14324.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14323.895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14305.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14328.205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14346.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14311.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14354.678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14350.985000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14333.406999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14323.518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14366.231</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14311.763999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14310.839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14356.501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14364.191999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14295.773999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14345.221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14330.42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14342.254000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14347.834999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14371.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14346.045</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14329.776</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14357.947</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14319.233</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14324.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14338.620999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14359.984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14328.364</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14335.414000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14363.214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14335.397999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14354.882</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14328.598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14343.97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14338.165000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14337.576999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14365.184999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14367.597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14349.745999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14323.002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14368.772999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14379.208000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14364.629000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BCE-45FB-9442-F771366312D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Losses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>train!$K$2:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>6576.723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6576.723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6359.6170000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6397.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6367.8289999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6823.0739999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6361.7079999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6382.0640000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6878.5410000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7486.1480000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6651.9219999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6371.2550000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7285.5349999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7074.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7392.4870000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7179.8469999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6876.5959999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6936.0590000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7358.3540000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7432.9210000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7577.942</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7196.3890000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7612.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7526.3580000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7057.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7526.0140000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7690.7139999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7817.652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7071.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6947.5169999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7341.7830000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7651.1719999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7440.4610000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7665.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7113.6210000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6855.1970000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7865.9110000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7765.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7216.8320000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7376.0510000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7636.0349999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7964.1319999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7972.9549999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7660.7330000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7428.7669999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6663.5420000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7677.2169999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7160.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7375.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7095.183</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7485.6679999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7416.6549999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6728.94</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6987.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7320.6679999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7192.5320000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BCE-45FB-9442-F771366312D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413938256"/>
+        <c:axId val="416104000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413938256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416104000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416104000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413938256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -7332,7 +8015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7811,7 +8494,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9825,7 +10508,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -18267,6 +18950,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20691,6 +21414,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25670,6 +26909,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18030BC2-9E72-4BFE-BF7B-0F10E9422423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36490,23 +37765,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F713C-62A2-4946-B10B-F5C365A7F2BC}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>251</v>
       </c>
       <c r="C1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -36519,8 +37800,14 @@
       <c r="D2">
         <v>534.41700000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>17008.357</v>
+      </c>
+      <c r="K2">
+        <v>6576.723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -36533,8 +37820,14 @@
       <c r="D3">
         <v>553.30100000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>17008.357</v>
+      </c>
+      <c r="K3">
+        <v>6576.723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -36547,8 +37840,14 @@
       <c r="D4">
         <v>570.625</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>14161.092000000001</v>
+      </c>
+      <c r="K4">
+        <v>6359.6170000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -36561,8 +37860,14 @@
       <c r="D5">
         <v>575.90899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>14103.118</v>
+      </c>
+      <c r="K5">
+        <v>6397.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -36575,424 +37880,742 @@
       <c r="D6">
         <v>604.35199999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>14036.084999999999</v>
+      </c>
+      <c r="K6">
+        <v>6367.8289999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>40.561999999999998</v>
       </c>
       <c r="D7">
         <v>574.01300000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>17533.687000000002</v>
+      </c>
+      <c r="K7">
+        <v>6823.0739999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>40.417999999999999</v>
       </c>
       <c r="D8">
         <v>590.79100000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>14550.880999999999</v>
+      </c>
+      <c r="K8">
+        <v>6361.7079999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>42.695</v>
       </c>
       <c r="D9">
         <v>557.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>14442.607</v>
+      </c>
+      <c r="K9">
+        <v>6382.0640000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>41.470999999999997</v>
       </c>
       <c r="D10">
         <v>543.19100000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>14359.975</v>
+      </c>
+      <c r="K10">
+        <v>6878.5410000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>40.545000000000002</v>
       </c>
       <c r="D11">
         <v>564.30100000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>14352.181</v>
+      </c>
+      <c r="K11">
+        <v>7486.1480000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>41.628999999999998</v>
       </c>
       <c r="D12">
         <v>547.78300000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>14355.665000000001</v>
+      </c>
+      <c r="K12">
+        <v>6651.9219999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>40.792999999999999</v>
       </c>
       <c r="D13">
         <v>601.41999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>14352.77</v>
+      </c>
+      <c r="K13">
+        <v>6371.2550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>41.140999999999998</v>
       </c>
       <c r="D14">
         <v>551.59100000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>14343.445</v>
+      </c>
+      <c r="K14">
+        <v>7285.5349999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>40.853000000000002</v>
       </c>
       <c r="D15">
         <v>603.65700000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>14324.89</v>
+      </c>
+      <c r="K15">
+        <v>7074.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>41.249000000000002</v>
       </c>
       <c r="D16">
         <v>561.28499999999997</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>14323.895</v>
+      </c>
+      <c r="K16">
+        <v>7392.4870000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>40.15</v>
       </c>
       <c r="D17">
         <v>583.56899999999996</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>14305.71</v>
+      </c>
+      <c r="K17">
+        <v>7179.8469999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>40.604999999999997</v>
       </c>
       <c r="D18">
         <v>571.88900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>14328.205</v>
+      </c>
+      <c r="K18">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>41.405999999999999</v>
       </c>
       <c r="D19">
         <v>568.37199999999996</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>14346.89</v>
+      </c>
+      <c r="K19">
+        <v>6876.5959999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>40.186</v>
       </c>
       <c r="D20">
         <v>591.70799999999997</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>14311.24</v>
+      </c>
+      <c r="K20">
+        <v>6936.0590000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>40.031999999999996</v>
       </c>
       <c r="D21">
         <v>571.35</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>14354.678</v>
+      </c>
+      <c r="K21">
+        <v>7358.3540000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>40.118000000000002</v>
       </c>
       <c r="D22">
         <v>581.71699999999998</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>14350.985000000001</v>
+      </c>
+      <c r="K22">
+        <v>7432.9210000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>40.542999999999999</v>
       </c>
       <c r="D23">
         <v>602.45799999999997</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>14333.406999999999</v>
+      </c>
+      <c r="K23">
+        <v>7577.942</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>40.31</v>
       </c>
       <c r="D24">
         <v>568.11099999999999</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>14323.518</v>
+      </c>
+      <c r="K24">
+        <v>7196.3890000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>40.576000000000001</v>
       </c>
       <c r="D25">
         <v>559.63199999999995</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>14366.231</v>
+      </c>
+      <c r="K25">
+        <v>7612.91</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>40.484000000000002</v>
       </c>
       <c r="D26">
         <v>568.94200000000001</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>14311.763999999999</v>
+      </c>
+      <c r="K26">
+        <v>7526.3580000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>39.825000000000003</v>
       </c>
       <c r="D27">
         <v>581.65599999999995</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>14310.839</v>
+      </c>
+      <c r="K27">
+        <v>7057.5540000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>39.895000000000003</v>
       </c>
       <c r="D28">
         <v>568.54999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>14356.501</v>
+      </c>
+      <c r="K28">
+        <v>7526.0140000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>41.228000000000002</v>
       </c>
       <c r="D29">
         <v>591.74300000000005</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>14364.191999999999</v>
+      </c>
+      <c r="K29">
+        <v>7690.7139999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>39.950000000000003</v>
       </c>
       <c r="D30">
         <v>588.23400000000004</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>14295.773999999999</v>
+      </c>
+      <c r="K30">
+        <v>7817.652</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>40.1</v>
       </c>
       <c r="D31">
         <v>570.798</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>14345.221</v>
+      </c>
+      <c r="K31">
+        <v>7071.1419999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>40.438000000000002</v>
       </c>
       <c r="D32">
         <v>593.68200000000002</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>14330.42</v>
+      </c>
+      <c r="K32">
+        <v>6947.5169999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>40.042999999999999</v>
       </c>
       <c r="D33">
         <v>576.596</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>14342.254000000001</v>
+      </c>
+      <c r="K33">
+        <v>7341.7830000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>40.454999999999998</v>
       </c>
       <c r="D34">
         <v>558.43499999999995</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>14347.834999999999</v>
+      </c>
+      <c r="K34">
+        <v>7651.1719999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>39.975999999999999</v>
       </c>
       <c r="D35">
         <v>566.41399999999999</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>14371.05</v>
+      </c>
+      <c r="K35">
+        <v>7440.4610000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>39.892000000000003</v>
       </c>
       <c r="D36">
         <v>576.80700000000002</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>14346.045</v>
+      </c>
+      <c r="K36">
+        <v>7665.1419999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>40.570999999999998</v>
       </c>
       <c r="D37">
         <v>569.89700000000005</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>14329.776</v>
+      </c>
+      <c r="K37">
+        <v>7113.6210000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>39.81</v>
       </c>
       <c r="D38">
         <v>574.74099999999999</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>14357.947</v>
+      </c>
+      <c r="K38">
+        <v>6855.1970000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>40.570999999999998</v>
       </c>
       <c r="D39">
         <v>556.55999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>14319.233</v>
+      </c>
+      <c r="K39">
+        <v>7865.9110000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>39.692999999999998</v>
       </c>
       <c r="D40">
         <v>565.90499999999997</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>14324.21</v>
+      </c>
+      <c r="K40">
+        <v>7765.1120000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>40.082000000000001</v>
       </c>
       <c r="D41">
         <v>559.89</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>14338.620999999999</v>
+      </c>
+      <c r="K41">
+        <v>7216.8320000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>40.328000000000003</v>
       </c>
       <c r="D42">
         <v>562.62400000000002</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>14359.984</v>
+      </c>
+      <c r="K42">
+        <v>7376.0510000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>39.798000000000002</v>
       </c>
       <c r="D43">
         <v>578.67499999999995</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>14328.364</v>
+      </c>
+      <c r="K43">
+        <v>7636.0349999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>40.787999999999997</v>
       </c>
       <c r="D44">
         <v>562.67100000000005</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>14335.414000000001</v>
+      </c>
+      <c r="K44">
+        <v>7964.1319999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>40.097999999999999</v>
       </c>
       <c r="D45">
         <v>585.20699999999999</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>14363.214</v>
+      </c>
+      <c r="K45">
+        <v>7972.9549999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>40.4</v>
       </c>
       <c r="D46">
         <v>562.14099999999996</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>14335.397999999999</v>
+      </c>
+      <c r="K46">
+        <v>7660.7330000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>39.646000000000001</v>
       </c>
       <c r="D47">
         <v>581.72900000000004</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>14354.882</v>
+      </c>
+      <c r="K47">
+        <v>7428.7669999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>39.750999999999998</v>
       </c>
       <c r="D48">
         <v>573.32299999999998</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>14328.598</v>
+      </c>
+      <c r="K48">
+        <v>6663.5420000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>40.061999999999998</v>
       </c>
       <c r="D49">
         <v>580.87800000000004</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>14343.97</v>
+      </c>
+      <c r="K49">
+        <v>7677.2169999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>39.74</v>
       </c>
       <c r="D50">
         <v>580.678</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>14338.165000000001</v>
+      </c>
+      <c r="K50">
+        <v>7160.37</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>40.104999999999997</v>
       </c>
       <c r="D51">
         <v>580.245</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>14337.576999999999</v>
+      </c>
+      <c r="K51">
+        <v>7375.1210000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>40.44</v>
       </c>
       <c r="D52">
         <v>590.05200000000002</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>14365.184999999999</v>
+      </c>
+      <c r="K52">
+        <v>7095.183</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>40.344000000000001</v>
       </c>
       <c r="D53">
         <v>583.18299999999999</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>14367.597</v>
+      </c>
+      <c r="K53">
+        <v>7485.6679999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>39.96</v>
       </c>
       <c r="D54">
         <v>578.94500000000005</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>14349.745999999999</v>
+      </c>
+      <c r="K54">
+        <v>7416.6549999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>39.741999999999997</v>
       </c>
       <c r="D55">
         <v>581.39400000000001</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>14323.002</v>
+      </c>
+      <c r="K55">
+        <v>6728.94</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>40.182000000000002</v>
       </c>
       <c r="D56">
         <v>590.76</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>14368.772999999999</v>
+      </c>
+      <c r="K56">
+        <v>6987.2730000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>39.767000000000003</v>
       </c>
       <c r="D57">
         <v>570.47699999999998</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>14379.208000000001</v>
+      </c>
+      <c r="K57">
+        <v>7320.6679999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>40.258000000000003</v>
       </c>
       <c r="D58">
         <v>588.00699999999995</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>14364.629000000001</v>
+      </c>
+      <c r="K58">
+        <v>7192.5320000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>39.804000000000002</v>
       </c>
@@ -37000,7 +38623,7 @@
         <v>577.91899999999998</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>40.113</v>
       </c>
@@ -37008,7 +38631,7 @@
         <v>570.28</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>40.334000000000003</v>
       </c>
@@ -37016,7 +38639,7 @@
         <v>565.11400000000003</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>39.584000000000003</v>
       </c>
@@ -37024,7 +38647,7 @@
         <v>580.90499999999997</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>39.604999999999997</v>
       </c>
@@ -37032,7 +38655,7 @@
         <v>572.39200000000005</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>40.155999999999999</v>
       </c>

--- a/cpac-data.xlsx
+++ b/cpac-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiModularity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF16C8-F231-4035-A89A-8409A32F6BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479FFBE9-9992-4E9D-92DE-5EB0BEF2E3CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="14370" windowHeight="4650" activeTab="3" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="14370" windowHeight="4650" activeTab="3" xr2:uid="{841CE58D-BA72-42A6-96EB-281E7D9E4954}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Modality" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
   <si>
     <t>1.75 (0.51)</t>
   </si>
@@ -3716,14 +3716,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16样本学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Train Losses</t>
   </si>
   <si>
     <t>Test Losses</t>
+  </si>
+  <si>
+    <t>16样本学习（错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于矩阵形状不对根本就没有练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5896,6 +5900,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>全样本</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>序列</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5959,180 +5996,180 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>train!$J$2:$J$59</c:f>
+              <c:f>train!$J$2:$J$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>17008.357</c:v>
+                  <c:v>472.99200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17008.357</c:v>
+                  <c:v>455.81099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14161.092000000001</c:v>
+                  <c:v>450.13400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14103.118</c:v>
+                  <c:v>443.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14036.084999999999</c:v>
+                  <c:v>439.95299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17533.687000000002</c:v>
+                  <c:v>444.40300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14550.880999999999</c:v>
+                  <c:v>442.00099999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14442.607</c:v>
+                  <c:v>439.28899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14359.975</c:v>
+                  <c:v>437.51299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14352.181</c:v>
+                  <c:v>439.50099999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14355.665000000001</c:v>
+                  <c:v>442.99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14352.77</c:v>
+                  <c:v>437.154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14343.445</c:v>
+                  <c:v>438.58800000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14324.89</c:v>
+                  <c:v>438.41399999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14323.895</c:v>
+                  <c:v>438.32100000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14305.71</c:v>
+                  <c:v>436.23700000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14328.205</c:v>
+                  <c:v>441.24599999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14346.89</c:v>
+                  <c:v>439.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14311.24</c:v>
+                  <c:v>438.13499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14354.678</c:v>
+                  <c:v>437.31700000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14350.985000000001</c:v>
+                  <c:v>436.53199999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14333.406999999999</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14323.518</c:v>
+                  <c:v>435.464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14366.231</c:v>
+                  <c:v>433.99700000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14311.763999999999</c:v>
+                  <c:v>435.87400000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14310.839</c:v>
+                  <c:v>436.786</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14356.501</c:v>
+                  <c:v>439.43599999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14364.191999999999</c:v>
+                  <c:v>435.22500000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14295.773999999999</c:v>
+                  <c:v>434.97899999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14345.221</c:v>
+                  <c:v>436.339</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14330.42</c:v>
+                  <c:v>434.70499999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14342.254000000001</c:v>
+                  <c:v>435.33199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14347.834999999999</c:v>
+                  <c:v>436.55399999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14371.05</c:v>
+                  <c:v>436.79899999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14346.045</c:v>
+                  <c:v>434.03100000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14329.776</c:v>
+                  <c:v>435.84</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14357.947</c:v>
+                  <c:v>432.86099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14319.233</c:v>
+                  <c:v>432.26600000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14324.21</c:v>
+                  <c:v>431.892</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14338.620999999999</c:v>
+                  <c:v>430.26299999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14359.984</c:v>
+                  <c:v>433.44799999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14328.364</c:v>
+                  <c:v>431.762</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14335.414000000001</c:v>
+                  <c:v>429.041</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14363.214</c:v>
+                  <c:v>432.59100000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14335.397999999999</c:v>
+                  <c:v>429.75</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14354.882</c:v>
+                  <c:v>428.48200000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14328.598</c:v>
+                  <c:v>426.73899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14343.97</c:v>
+                  <c:v>426.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14338.165000000001</c:v>
+                  <c:v>426.858</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14337.576999999999</c:v>
+                  <c:v>426.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14365.184999999999</c:v>
+                  <c:v>422.947</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14367.597</c:v>
+                  <c:v>424.67599999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14349.745999999999</c:v>
+                  <c:v>426.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14323.002</c:v>
+                  <c:v>420.15899999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14368.772999999999</c:v>
+                  <c:v>418.964</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14379.208000000001</c:v>
+                  <c:v>418.44400000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14364.629000000001</c:v>
+                  <c:v>419.47800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,180 +6209,180 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>train!$K$2:$K$59</c:f>
+              <c:f>train!$K$2:$K$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>6576.723</c:v>
+                  <c:v>216.28200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6576.723</c:v>
+                  <c:v>210.22900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6359.6170000000002</c:v>
+                  <c:v>209.59800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6397.125</c:v>
+                  <c:v>204.559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6367.8289999999997</c:v>
+                  <c:v>203.179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6823.0739999999996</c:v>
+                  <c:v>203.499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6361.7079999999996</c:v>
+                  <c:v>202.333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6382.0640000000003</c:v>
+                  <c:v>202.12899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6878.5410000000002</c:v>
+                  <c:v>201.90299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7486.1480000000001</c:v>
+                  <c:v>201.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6651.9219999999996</c:v>
+                  <c:v>202.28200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6371.2550000000001</c:v>
+                  <c:v>201.87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7285.5349999999999</c:v>
+                  <c:v>206.34100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7074.08</c:v>
+                  <c:v>201.95599999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7392.4870000000001</c:v>
+                  <c:v>202.00200000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7179.8469999999998</c:v>
+                  <c:v>204.12700000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7235</c:v>
+                  <c:v>202.10599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6876.5959999999995</c:v>
+                  <c:v>204.416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6936.0590000000002</c:v>
+                  <c:v>202.56299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7358.3540000000003</c:v>
+                  <c:v>204.31800000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7432.9210000000003</c:v>
+                  <c:v>209.39099999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7577.942</c:v>
+                  <c:v>205.136</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7196.3890000000001</c:v>
+                  <c:v>202.63499999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7612.91</c:v>
+                  <c:v>203.08699999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7526.3580000000002</c:v>
+                  <c:v>202.673</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7057.5540000000001</c:v>
+                  <c:v>208.68100000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7526.0140000000001</c:v>
+                  <c:v>203.191</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7690.7139999999999</c:v>
+                  <c:v>203.047</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7817.652</c:v>
+                  <c:v>203.006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7071.1419999999998</c:v>
+                  <c:v>204.44800000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6947.5169999999998</c:v>
+                  <c:v>203.35300000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7341.7830000000004</c:v>
+                  <c:v>204.30099999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7651.1719999999996</c:v>
+                  <c:v>203.08600000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7440.4610000000002</c:v>
+                  <c:v>203.553</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7665.1419999999998</c:v>
+                  <c:v>203.054</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7113.6210000000001</c:v>
+                  <c:v>203.666</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6855.1970000000001</c:v>
+                  <c:v>205.876</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7865.9110000000001</c:v>
+                  <c:v>203.328</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7765.1120000000001</c:v>
+                  <c:v>204.62200000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7216.8320000000003</c:v>
+                  <c:v>206.58799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7376.0510000000004</c:v>
+                  <c:v>204.61600000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7636.0349999999999</c:v>
+                  <c:v>203.803</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7964.1319999999996</c:v>
+                  <c:v>204.46199999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7972.9549999999999</c:v>
+                  <c:v>204.33199999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7660.7330000000002</c:v>
+                  <c:v>205.73500000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7428.7669999999998</c:v>
+                  <c:v>206.95400000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6663.5420000000004</c:v>
+                  <c:v>205.13499999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7677.2169999999996</c:v>
+                  <c:v>205.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7160.37</c:v>
+                  <c:v>205.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7375.1210000000001</c:v>
+                  <c:v>207.506</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7095.183</c:v>
+                  <c:v>206.71799999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7485.6679999999997</c:v>
+                  <c:v>208.249</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7416.6549999999997</c:v>
+                  <c:v>207.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6728.94</c:v>
+                  <c:v>208.12299999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6987.2730000000001</c:v>
+                  <c:v>208.041</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7320.6679999999997</c:v>
+                  <c:v>208.952</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7192.5320000000002</c:v>
+                  <c:v>209.036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26914,13 +26951,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37768,7 +37805,7 @@
   <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -37778,13 +37815,16 @@
         <v>251</v>
       </c>
       <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" t="s">
         <v>256</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>257</v>
-      </c>
-      <c r="K1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -37801,10 +37841,10 @@
         <v>534.41700000000003</v>
       </c>
       <c r="J2">
-        <v>17008.357</v>
+        <v>472.99200000000002</v>
       </c>
       <c r="K2">
-        <v>6576.723</v>
+        <v>216.28200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -37821,10 +37861,10 @@
         <v>553.30100000000004</v>
       </c>
       <c r="J3">
-        <v>17008.357</v>
+        <v>455.81099999999998</v>
       </c>
       <c r="K3">
-        <v>6576.723</v>
+        <v>210.22900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -37841,10 +37881,10 @@
         <v>570.625</v>
       </c>
       <c r="J4">
-        <v>14161.092000000001</v>
+        <v>450.13400000000001</v>
       </c>
       <c r="K4">
-        <v>6359.6170000000002</v>
+        <v>209.59800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -37861,10 +37901,10 @@
         <v>575.90899999999999</v>
       </c>
       <c r="J5">
-        <v>14103.118</v>
+        <v>443.52</v>
       </c>
       <c r="K5">
-        <v>6397.125</v>
+        <v>204.559</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -37881,10 +37921,10 @@
         <v>604.35199999999998</v>
       </c>
       <c r="J6">
-        <v>14036.084999999999</v>
+        <v>439.95299999999997</v>
       </c>
       <c r="K6">
-        <v>6367.8289999999997</v>
+        <v>203.179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -37895,10 +37935,10 @@
         <v>574.01300000000003</v>
       </c>
       <c r="J7">
-        <v>17533.687000000002</v>
+        <v>444.40300000000002</v>
       </c>
       <c r="K7">
-        <v>6823.0739999999996</v>
+        <v>203.499</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -37909,10 +37949,10 @@
         <v>590.79100000000005</v>
       </c>
       <c r="J8">
-        <v>14550.880999999999</v>
+        <v>442.00099999999998</v>
       </c>
       <c r="K8">
-        <v>6361.7079999999996</v>
+        <v>202.333</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -37923,10 +37963,10 @@
         <v>557.6</v>
       </c>
       <c r="J9">
-        <v>14442.607</v>
+        <v>439.28899999999999</v>
       </c>
       <c r="K9">
-        <v>6382.0640000000003</v>
+        <v>202.12899999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -37937,10 +37977,10 @@
         <v>543.19100000000003</v>
       </c>
       <c r="J10">
-        <v>14359.975</v>
+        <v>437.51299999999998</v>
       </c>
       <c r="K10">
-        <v>6878.5410000000002</v>
+        <v>201.90299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -37951,10 +37991,10 @@
         <v>564.30100000000004</v>
       </c>
       <c r="J11">
-        <v>14352.181</v>
+        <v>439.50099999999998</v>
       </c>
       <c r="K11">
-        <v>7486.1480000000001</v>
+        <v>201.88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -37965,10 +38005,10 @@
         <v>547.78300000000002</v>
       </c>
       <c r="J12">
-        <v>14355.665000000001</v>
+        <v>442.99</v>
       </c>
       <c r="K12">
-        <v>6651.9219999999996</v>
+        <v>202.28200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -37979,10 +38019,10 @@
         <v>601.41999999999996</v>
       </c>
       <c r="J13">
-        <v>14352.77</v>
+        <v>437.154</v>
       </c>
       <c r="K13">
-        <v>6371.2550000000001</v>
+        <v>201.87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -37993,10 +38033,10 @@
         <v>551.59100000000001</v>
       </c>
       <c r="J14">
-        <v>14343.445</v>
+        <v>438.58800000000002</v>
       </c>
       <c r="K14">
-        <v>7285.5349999999999</v>
+        <v>206.34100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -38007,10 +38047,10 @@
         <v>603.65700000000004</v>
       </c>
       <c r="J15">
-        <v>14324.89</v>
+        <v>438.41399999999999</v>
       </c>
       <c r="K15">
-        <v>7074.08</v>
+        <v>201.95599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -38021,10 +38061,10 @@
         <v>561.28499999999997</v>
       </c>
       <c r="J16">
-        <v>14323.895</v>
+        <v>438.32100000000003</v>
       </c>
       <c r="K16">
-        <v>7392.4870000000001</v>
+        <v>202.00200000000001</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
@@ -38035,10 +38075,10 @@
         <v>583.56899999999996</v>
       </c>
       <c r="J17">
-        <v>14305.71</v>
+        <v>436.23700000000002</v>
       </c>
       <c r="K17">
-        <v>7179.8469999999998</v>
+        <v>204.12700000000001</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
@@ -38049,10 +38089,10 @@
         <v>571.88900000000001</v>
       </c>
       <c r="J18">
-        <v>14328.205</v>
+        <v>441.24599999999998</v>
       </c>
       <c r="K18">
-        <v>7235</v>
+        <v>202.10599999999999</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
@@ -38063,10 +38103,10 @@
         <v>568.37199999999996</v>
       </c>
       <c r="J19">
-        <v>14346.89</v>
+        <v>439.52</v>
       </c>
       <c r="K19">
-        <v>6876.5959999999995</v>
+        <v>204.416</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
@@ -38077,10 +38117,10 @@
         <v>591.70799999999997</v>
       </c>
       <c r="J20">
-        <v>14311.24</v>
+        <v>438.13499999999999</v>
       </c>
       <c r="K20">
-        <v>6936.0590000000002</v>
+        <v>202.56299999999999</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
@@ -38091,10 +38131,10 @@
         <v>571.35</v>
       </c>
       <c r="J21">
-        <v>14354.678</v>
+        <v>437.31700000000001</v>
       </c>
       <c r="K21">
-        <v>7358.3540000000003</v>
+        <v>204.31800000000001</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
@@ -38105,10 +38145,10 @@
         <v>581.71699999999998</v>
       </c>
       <c r="J22">
-        <v>14350.985000000001</v>
+        <v>436.53199999999998</v>
       </c>
       <c r="K22">
-        <v>7432.9210000000003</v>
+        <v>209.39099999999999</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
@@ -38119,10 +38159,10 @@
         <v>602.45799999999997</v>
       </c>
       <c r="J23">
-        <v>14333.406999999999</v>
+        <v>437</v>
       </c>
       <c r="K23">
-        <v>7577.942</v>
+        <v>205.136</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
@@ -38133,10 +38173,10 @@
         <v>568.11099999999999</v>
       </c>
       <c r="J24">
-        <v>14323.518</v>
+        <v>435.464</v>
       </c>
       <c r="K24">
-        <v>7196.3890000000001</v>
+        <v>202.63499999999999</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
@@ -38147,10 +38187,10 @@
         <v>559.63199999999995</v>
       </c>
       <c r="J25">
-        <v>14366.231</v>
+        <v>433.99700000000001</v>
       </c>
       <c r="K25">
-        <v>7612.91</v>
+        <v>203.08699999999999</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
@@ -38161,10 +38201,10 @@
         <v>568.94200000000001</v>
       </c>
       <c r="J26">
-        <v>14311.763999999999</v>
+        <v>435.87400000000002</v>
       </c>
       <c r="K26">
-        <v>7526.3580000000002</v>
+        <v>202.673</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
@@ -38175,10 +38215,10 @@
         <v>581.65599999999995</v>
       </c>
       <c r="J27">
-        <v>14310.839</v>
+        <v>436.786</v>
       </c>
       <c r="K27">
-        <v>7057.5540000000001</v>
+        <v>208.68100000000001</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
@@ -38189,10 +38229,10 @@
         <v>568.54999999999995</v>
       </c>
       <c r="J28">
-        <v>14356.501</v>
+        <v>439.43599999999998</v>
       </c>
       <c r="K28">
-        <v>7526.0140000000001</v>
+        <v>203.191</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
@@ -38203,10 +38243,10 @@
         <v>591.74300000000005</v>
       </c>
       <c r="J29">
-        <v>14364.191999999999</v>
+        <v>435.22500000000002</v>
       </c>
       <c r="K29">
-        <v>7690.7139999999999</v>
+        <v>203.047</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
@@ -38217,10 +38257,10 @@
         <v>588.23400000000004</v>
       </c>
       <c r="J30">
-        <v>14295.773999999999</v>
+        <v>434.97899999999998</v>
       </c>
       <c r="K30">
-        <v>7817.652</v>
+        <v>203.006</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
@@ -38231,10 +38271,10 @@
         <v>570.798</v>
       </c>
       <c r="J31">
-        <v>14345.221</v>
+        <v>436.339</v>
       </c>
       <c r="K31">
-        <v>7071.1419999999998</v>
+        <v>204.44800000000001</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
@@ -38245,10 +38285,10 @@
         <v>593.68200000000002</v>
       </c>
       <c r="J32">
-        <v>14330.42</v>
+        <v>434.70499999999998</v>
       </c>
       <c r="K32">
-        <v>6947.5169999999998</v>
+        <v>203.35300000000001</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
@@ -38259,10 +38299,10 @@
         <v>576.596</v>
       </c>
       <c r="J33">
-        <v>14342.254000000001</v>
+        <v>435.33199999999999</v>
       </c>
       <c r="K33">
-        <v>7341.7830000000004</v>
+        <v>204.30099999999999</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
@@ -38273,10 +38313,10 @@
         <v>558.43499999999995</v>
       </c>
       <c r="J34">
-        <v>14347.834999999999</v>
+        <v>436.55399999999997</v>
       </c>
       <c r="K34">
-        <v>7651.1719999999996</v>
+        <v>203.08600000000001</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
@@ -38287,10 +38327,10 @@
         <v>566.41399999999999</v>
       </c>
       <c r="J35">
-        <v>14371.05</v>
+        <v>436.79899999999998</v>
       </c>
       <c r="K35">
-        <v>7440.4610000000002</v>
+        <v>203.553</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
@@ -38301,10 +38341,10 @@
         <v>576.80700000000002</v>
       </c>
       <c r="J36">
-        <v>14346.045</v>
+        <v>434.03100000000001</v>
       </c>
       <c r="K36">
-        <v>7665.1419999999998</v>
+        <v>203.054</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
@@ -38315,10 +38355,10 @@
         <v>569.89700000000005</v>
       </c>
       <c r="J37">
-        <v>14329.776</v>
+        <v>435.84</v>
       </c>
       <c r="K37">
-        <v>7113.6210000000001</v>
+        <v>203.666</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
@@ -38329,10 +38369,10 @@
         <v>574.74099999999999</v>
       </c>
       <c r="J38">
-        <v>14357.947</v>
+        <v>432.86099999999999</v>
       </c>
       <c r="K38">
-        <v>6855.1970000000001</v>
+        <v>205.876</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
@@ -38343,10 +38383,10 @@
         <v>556.55999999999995</v>
       </c>
       <c r="J39">
-        <v>14319.233</v>
+        <v>432.26600000000002</v>
       </c>
       <c r="K39">
-        <v>7865.9110000000001</v>
+        <v>203.328</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
@@ -38357,10 +38397,10 @@
         <v>565.90499999999997</v>
       </c>
       <c r="J40">
-        <v>14324.21</v>
+        <v>431.892</v>
       </c>
       <c r="K40">
-        <v>7765.1120000000001</v>
+        <v>204.62200000000001</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
@@ -38371,10 +38411,10 @@
         <v>559.89</v>
       </c>
       <c r="J41">
-        <v>14338.620999999999</v>
+        <v>430.26299999999998</v>
       </c>
       <c r="K41">
-        <v>7216.8320000000003</v>
+        <v>206.58799999999999</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
@@ -38385,10 +38425,10 @@
         <v>562.62400000000002</v>
       </c>
       <c r="J42">
-        <v>14359.984</v>
+        <v>433.44799999999998</v>
       </c>
       <c r="K42">
-        <v>7376.0510000000004</v>
+        <v>204.61600000000001</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
@@ -38399,10 +38439,10 @@
         <v>578.67499999999995</v>
       </c>
       <c r="J43">
-        <v>14328.364</v>
+        <v>431.762</v>
       </c>
       <c r="K43">
-        <v>7636.0349999999999</v>
+        <v>203.803</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
@@ -38413,10 +38453,10 @@
         <v>562.67100000000005</v>
       </c>
       <c r="J44">
-        <v>14335.414000000001</v>
+        <v>429.041</v>
       </c>
       <c r="K44">
-        <v>7964.1319999999996</v>
+        <v>204.46199999999999</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
@@ -38427,10 +38467,10 @@
         <v>585.20699999999999</v>
       </c>
       <c r="J45">
-        <v>14363.214</v>
+        <v>432.59100000000001</v>
       </c>
       <c r="K45">
-        <v>7972.9549999999999</v>
+        <v>204.33199999999999</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
@@ -38441,10 +38481,10 @@
         <v>562.14099999999996</v>
       </c>
       <c r="J46">
-        <v>14335.397999999999</v>
+        <v>429.75</v>
       </c>
       <c r="K46">
-        <v>7660.7330000000002</v>
+        <v>205.73500000000001</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.3">
@@ -38455,10 +38495,10 @@
         <v>581.72900000000004</v>
       </c>
       <c r="J47">
-        <v>14354.882</v>
+        <v>428.48200000000003</v>
       </c>
       <c r="K47">
-        <v>7428.7669999999998</v>
+        <v>206.95400000000001</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.3">
@@ -38469,10 +38509,10 @@
         <v>573.32299999999998</v>
       </c>
       <c r="J48">
-        <v>14328.598</v>
+        <v>426.73899999999998</v>
       </c>
       <c r="K48">
-        <v>6663.5420000000004</v>
+        <v>205.13499999999999</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.3">
@@ -38483,10 +38523,10 @@
         <v>580.87800000000004</v>
       </c>
       <c r="J49">
-        <v>14343.97</v>
+        <v>426.5</v>
       </c>
       <c r="K49">
-        <v>7677.2169999999996</v>
+        <v>205.70699999999999</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.3">
@@ -38497,10 +38537,10 @@
         <v>580.678</v>
       </c>
       <c r="J50">
-        <v>14338.165000000001</v>
+        <v>426.858</v>
       </c>
       <c r="K50">
-        <v>7160.37</v>
+        <v>205.67400000000001</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.3">
@@ -38511,10 +38551,10 @@
         <v>580.245</v>
       </c>
       <c r="J51">
-        <v>14337.576999999999</v>
+        <v>426.63400000000001</v>
       </c>
       <c r="K51">
-        <v>7375.1210000000001</v>
+        <v>207.506</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.3">
@@ -38525,10 +38565,10 @@
         <v>590.05200000000002</v>
       </c>
       <c r="J52">
-        <v>14365.184999999999</v>
+        <v>422.947</v>
       </c>
       <c r="K52">
-        <v>7095.183</v>
+        <v>206.71799999999999</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.3">
@@ -38539,10 +38579,10 @@
         <v>583.18299999999999</v>
       </c>
       <c r="J53">
-        <v>14367.597</v>
+        <v>424.67599999999999</v>
       </c>
       <c r="K53">
-        <v>7485.6679999999997</v>
+        <v>208.249</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.3">
@@ -38553,10 +38593,10 @@
         <v>578.94500000000005</v>
       </c>
       <c r="J54">
-        <v>14349.745999999999</v>
+        <v>426.06700000000001</v>
       </c>
       <c r="K54">
-        <v>7416.6549999999997</v>
+        <v>207.15600000000001</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.3">
@@ -38567,10 +38607,10 @@
         <v>581.39400000000001</v>
       </c>
       <c r="J55">
-        <v>14323.002</v>
+        <v>420.15899999999999</v>
       </c>
       <c r="K55">
-        <v>6728.94</v>
+        <v>208.12299999999999</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.3">
@@ -38581,10 +38621,10 @@
         <v>590.76</v>
       </c>
       <c r="J56">
-        <v>14368.772999999999</v>
+        <v>418.964</v>
       </c>
       <c r="K56">
-        <v>6987.2730000000001</v>
+        <v>208.041</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.3">
@@ -38595,10 +38635,10 @@
         <v>570.47699999999998</v>
       </c>
       <c r="J57">
-        <v>14379.208000000001</v>
+        <v>418.44400000000002</v>
       </c>
       <c r="K57">
-        <v>7320.6679999999997</v>
+        <v>208.952</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.3">
@@ -38609,10 +38649,10 @@
         <v>588.00699999999995</v>
       </c>
       <c r="J58">
-        <v>14364.629000000001</v>
+        <v>419.47800000000001</v>
       </c>
       <c r="K58">
-        <v>7192.5320000000002</v>
+        <v>209.036</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.3">
